--- a/app/config/tables/femaleClients/forms/femaleAllFields/femaleAllFields.xlsx
+++ b/app/config/tables/femaleClients/forms/femaleAllFields/femaleAllFields.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="31820" windowHeight="21100" tabRatio="500"/>
+    <workbookView xWindow="8200" yWindow="0" windowWidth="31820" windowHeight="21100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -662,12 +662,6 @@
     <t>Does not want to participate</t>
   </si>
   <si>
-    <t>femaleAllFields</t>
-  </si>
-  <si>
-    <t>Female All Fields</t>
-  </si>
-  <si>
     <t>script1</t>
   </si>
   <si>
@@ -1570,6 +1564,12 @@
   </si>
   <si>
     <t>a16</t>
+  </si>
+  <si>
+    <t>femaleAllFields</t>
+  </si>
+  <si>
+    <t>All Female Fields</t>
   </si>
 </sst>
 </file>
@@ -3273,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3745,7 +3745,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>98</v>
@@ -3760,7 +3760,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>101</v>
@@ -4045,10 +4045,10 @@
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I49" s="47"/>
     </row>
@@ -4058,10 +4058,10 @@
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I50" s="47"/>
     </row>
@@ -4070,13 +4070,13 @@
         <v>25</v>
       </c>
       <c r="C51" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="I51" s="47"/>
     </row>
@@ -4091,14 +4091,14 @@
     </row>
     <row r="53" spans="1:9" s="2" customFormat="1">
       <c r="B53" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C53" s="31"/>
       <c r="D53" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I53" s="47"/>
     </row>
@@ -4107,26 +4107,26 @@
         <v>25</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I54" s="47"/>
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1">
       <c r="B55" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I55" s="47"/>
     </row>
@@ -4145,10 +4145,10 @@
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I57" s="47"/>
     </row>
@@ -4157,13 +4157,13 @@
         <v>25</v>
       </c>
       <c r="C58" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="I58" s="47"/>
     </row>
@@ -4173,10 +4173,10 @@
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I59" s="47"/>
     </row>
@@ -4185,13 +4185,13 @@
         <v>25</v>
       </c>
       <c r="C60" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="I60" s="47"/>
     </row>
@@ -4201,10 +4201,10 @@
       </c>
       <c r="C61" s="31"/>
       <c r="D61" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I61" s="47"/>
     </row>
@@ -4213,13 +4213,13 @@
         <v>25</v>
       </c>
       <c r="C62" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="I62" s="47"/>
     </row>
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I63" s="47"/>
     </row>
@@ -4243,16 +4243,16 @@
         <v>77</v>
       </c>
       <c r="C64" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="F64" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="I64" s="47"/>
     </row>
@@ -4262,10 +4262,10 @@
       </c>
       <c r="C65" s="31"/>
       <c r="D65" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I65" s="47"/>
     </row>
@@ -4281,10 +4281,10 @@
       </c>
       <c r="C67" s="31"/>
       <c r="D67" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I67" s="46"/>
     </row>
@@ -4293,13 +4293,13 @@
         <v>25</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I68" s="47"/>
     </row>
@@ -4308,13 +4308,13 @@
         <v>25</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I69" s="47"/>
     </row>
@@ -4324,13 +4324,13 @@
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="I70" s="47"/>
     </row>
@@ -4340,10 +4340,10 @@
       </c>
       <c r="C71" s="31"/>
       <c r="D71" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I71" s="46"/>
     </row>
@@ -4352,16 +4352,16 @@
         <v>25</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I72" s="47"/>
     </row>
@@ -4370,13 +4370,13 @@
         <v>77</v>
       </c>
       <c r="C73" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="I73" s="47"/>
     </row>
@@ -4386,10 +4386,10 @@
       </c>
       <c r="C74" s="31"/>
       <c r="D74" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I74" s="47"/>
     </row>
@@ -4398,13 +4398,13 @@
         <v>25</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I75" s="47"/>
     </row>
@@ -4413,13 +4413,13 @@
         <v>25</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I76" s="47"/>
     </row>
@@ -4428,13 +4428,13 @@
         <v>25</v>
       </c>
       <c r="C77" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="I77" s="47"/>
     </row>
@@ -4444,13 +4444,13 @@
       </c>
       <c r="C78" s="31"/>
       <c r="D78" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="I78" s="47"/>
     </row>
@@ -4459,13 +4459,13 @@
         <v>25</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I79" s="47"/>
     </row>
@@ -4476,7 +4476,7 @@
       <c r="B80" s="30"/>
       <c r="C80" s="31"/>
       <c r="D80" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I80" s="47"/>
     </row>
@@ -4485,13 +4485,13 @@
         <v>25</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I81" s="47"/>
     </row>
@@ -4500,13 +4500,13 @@
         <v>25</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I82" s="47"/>
     </row>
@@ -4515,13 +4515,13 @@
         <v>25</v>
       </c>
       <c r="C83" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="I83" s="47"/>
     </row>
@@ -4530,13 +4530,13 @@
         <v>25</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I84" s="47"/>
     </row>
@@ -4545,16 +4545,16 @@
         <v>25</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="I85" s="47"/>
     </row>
@@ -4563,13 +4563,13 @@
         <v>25</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I86" s="47"/>
     </row>
@@ -4578,13 +4578,13 @@
         <v>25</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I87" s="47"/>
     </row>
@@ -4593,13 +4593,13 @@
         <v>25</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I88" s="47"/>
     </row>
@@ -4608,13 +4608,13 @@
         <v>25</v>
       </c>
       <c r="C89" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="I89" s="47"/>
     </row>
@@ -4633,10 +4633,10 @@
       </c>
       <c r="C91" s="31"/>
       <c r="D91" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I91" s="47"/>
     </row>
@@ -4645,13 +4645,13 @@
         <v>25</v>
       </c>
       <c r="C92" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="I92" s="46"/>
     </row>
@@ -4661,10 +4661,10 @@
       </c>
       <c r="C93" s="31"/>
       <c r="D93" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I93" s="47"/>
     </row>
@@ -4743,10 +4743,10 @@
         <v>47</v>
       </c>
       <c r="D99" s="34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I99" s="47"/>
     </row>
@@ -4755,10 +4755,10 @@
         <v>45</v>
       </c>
       <c r="D100" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I100" s="47"/>
     </row>
@@ -4767,13 +4767,13 @@
         <v>25</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="I101" s="47"/>
     </row>
@@ -4787,13 +4787,13 @@
     </row>
     <row r="103" spans="1:9" s="2" customFormat="1">
       <c r="B103" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D103" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="I103" s="47"/>
     </row>
@@ -4802,25 +4802,25 @@
         <v>25</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I104" s="47"/>
     </row>
     <row r="105" spans="1:9" s="2" customFormat="1">
       <c r="B105" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I105" s="47"/>
     </row>
@@ -4837,10 +4837,10 @@
         <v>47</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I107" s="47"/>
     </row>
@@ -4849,10 +4849,10 @@
         <v>40</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I108" s="47"/>
     </row>
@@ -4861,13 +4861,13 @@
         <v>25</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="I109" s="47"/>
     </row>
@@ -4876,10 +4876,10 @@
         <v>40</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I110" s="47"/>
     </row>
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="I111" s="47"/>
     </row>
@@ -4903,13 +4903,13 @@
         <v>25</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I112" s="47"/>
     </row>
@@ -4918,16 +4918,16 @@
         <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="F113" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="I113" s="47"/>
     </row>
@@ -4936,10 +4936,10 @@
         <v>40</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I114" s="47"/>
     </row>
@@ -4956,10 +4956,10 @@
         <v>47</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I116" s="46"/>
     </row>
@@ -4968,13 +4968,13 @@
         <v>25</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I117" s="47"/>
     </row>
@@ -4983,13 +4983,13 @@
         <v>25</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D118" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I118" s="47"/>
     </row>
@@ -4998,13 +4998,13 @@
         <v>12</v>
       </c>
       <c r="D119" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="I119" s="47"/>
     </row>
@@ -5013,10 +5013,10 @@
         <v>47</v>
       </c>
       <c r="D120" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I120" s="46"/>
     </row>
@@ -5025,16 +5025,16 @@
         <v>25</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D121" s="34" t="s">
         <v>98</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I121" s="47"/>
     </row>
@@ -5043,13 +5043,13 @@
         <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D122" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="I122" s="47"/>
     </row>
@@ -5058,10 +5058,10 @@
         <v>40</v>
       </c>
       <c r="D123" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I123" s="47"/>
     </row>
@@ -5070,13 +5070,13 @@
         <v>25</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D124" s="34" t="s">
         <v>101</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I124" s="47"/>
     </row>
@@ -5093,13 +5093,13 @@
         <v>25</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I126" s="47"/>
     </row>
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D127" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="I127" s="47"/>
     </row>
@@ -5123,13 +5123,13 @@
         <v>12</v>
       </c>
       <c r="D128" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="I128" s="47"/>
     </row>
@@ -5138,13 +5138,13 @@
         <v>25</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D129" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I129" s="47"/>
     </row>
@@ -5161,13 +5161,13 @@
         <v>25</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D131" s="34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I131" s="47"/>
     </row>
@@ -5176,13 +5176,13 @@
         <v>25</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D132" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I132" s="47"/>
     </row>
@@ -5191,13 +5191,13 @@
         <v>25</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D133" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D133" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="I133" s="47"/>
     </row>
@@ -5206,13 +5206,13 @@
         <v>69</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D134" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I134" s="47"/>
     </row>
@@ -5221,16 +5221,16 @@
         <v>69</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D135" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="I135" s="47"/>
     </row>
@@ -5239,13 +5239,13 @@
         <v>25</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D136" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I136" s="47"/>
     </row>
@@ -5254,13 +5254,13 @@
         <v>25</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D137" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I137" s="47"/>
     </row>
@@ -5269,13 +5269,13 @@
         <v>25</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D138" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I138" s="47"/>
     </row>
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D139" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="I139" s="47"/>
     </row>
@@ -5307,10 +5307,10 @@
         <v>47</v>
       </c>
       <c r="D141" s="34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I141" s="46"/>
     </row>
@@ -5319,16 +5319,16 @@
         <v>77</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D142" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="I142" s="47"/>
     </row>
@@ -5337,10 +5337,10 @@
         <v>40</v>
       </c>
       <c r="D143" s="34" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I143" s="47"/>
     </row>
@@ -5349,13 +5349,13 @@
         <v>25</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D144" s="34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I144" s="47"/>
     </row>
@@ -5364,16 +5364,16 @@
         <v>77</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D145" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="I145" s="47"/>
     </row>
@@ -5382,7 +5382,7 @@
         <v>40</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>128</v>
@@ -5394,10 +5394,10 @@
         <v>47</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I147" s="47"/>
     </row>
@@ -5406,10 +5406,10 @@
         <v>40</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I148" s="47"/>
     </row>
@@ -5483,7 +5483,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>134</v>
@@ -5494,7 +5494,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>135</v>
@@ -5505,7 +5505,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>134</v>
@@ -5516,7 +5516,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>135</v>
@@ -5527,7 +5527,7 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>136</v>
@@ -5538,7 +5538,7 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>136</v>
@@ -5549,7 +5549,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>138</v>
@@ -5560,7 +5560,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>139</v>
@@ -5571,7 +5571,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>140</v>
@@ -5582,7 +5582,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>141</v>
@@ -5593,7 +5593,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>142</v>
@@ -5604,7 +5604,7 @@
         <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>143</v>
@@ -5615,7 +5615,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>144</v>
@@ -5626,7 +5626,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>136</v>
@@ -5637,7 +5637,7 @@
         <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>145</v>
@@ -5648,7 +5648,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>146</v>
@@ -5659,7 +5659,7 @@
         <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>147</v>
@@ -5670,7 +5670,7 @@
         <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>148</v>
@@ -5681,7 +5681,7 @@
         <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>149</v>
@@ -5692,7 +5692,7 @@
         <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>150</v>
@@ -5703,7 +5703,7 @@
         <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>151</v>
@@ -5714,7 +5714,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>152</v>
@@ -5725,7 +5725,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>153</v>
@@ -5736,7 +5736,7 @@
         <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>144</v>
@@ -5747,7 +5747,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>136</v>
@@ -5758,7 +5758,7 @@
         <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>154</v>
@@ -5769,7 +5769,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>155</v>
@@ -5780,7 +5780,7 @@
         <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>156</v>
@@ -5791,7 +5791,7 @@
         <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>157</v>
@@ -5802,7 +5802,7 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>158</v>
@@ -5813,7 +5813,7 @@
         <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>159</v>
@@ -5824,7 +5824,7 @@
         <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>160</v>
@@ -5835,7 +5835,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>161</v>
@@ -5846,7 +5846,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>162</v>
@@ -5857,7 +5857,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>144</v>
@@ -5868,7 +5868,7 @@
         <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>136</v>
@@ -5879,7 +5879,7 @@
         <v>163</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>164</v>
@@ -5890,7 +5890,7 @@
         <v>163</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>165</v>
@@ -5901,7 +5901,7 @@
         <v>163</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>144</v>
@@ -5912,7 +5912,7 @@
         <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>136</v>
@@ -5923,7 +5923,7 @@
         <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>166</v>
@@ -5934,7 +5934,7 @@
         <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>167</v>
@@ -5945,7 +5945,7 @@
         <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>136</v>
@@ -5956,7 +5956,7 @@
         <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>168</v>
@@ -5967,7 +5967,7 @@
         <v>169</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>134</v>
@@ -5978,7 +5978,7 @@
         <v>169</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>135</v>
@@ -5989,7 +5989,7 @@
         <v>169</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>136</v>
@@ -6000,7 +6000,7 @@
         <v>169</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>168</v>
@@ -6011,7 +6011,7 @@
         <v>170</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>171</v>
@@ -6022,7 +6022,7 @@
         <v>170</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>172</v>
@@ -6033,7 +6033,7 @@
         <v>170</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>173</v>
@@ -6044,7 +6044,7 @@
         <v>170</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>174</v>
@@ -6110,7 +6110,7 @@
         <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>187</v>
@@ -6121,7 +6121,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>188</v>
@@ -6132,7 +6132,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>189</v>
@@ -6143,7 +6143,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>190</v>
@@ -6154,7 +6154,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>191</v>
@@ -6165,7 +6165,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>192</v>
@@ -6176,7 +6176,7 @@
         <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>136</v>
@@ -6187,7 +6187,7 @@
         <v>193</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>194</v>
@@ -6198,7 +6198,7 @@
         <v>195</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>196</v>
@@ -6209,7 +6209,7 @@
         <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>197</v>
@@ -6220,7 +6220,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>198</v>
@@ -6231,7 +6231,7 @@
         <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>199</v>
@@ -6242,7 +6242,7 @@
         <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>200</v>
@@ -6253,7 +6253,7 @@
         <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>201</v>
@@ -6264,7 +6264,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>202</v>
@@ -6275,7 +6275,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>203</v>
@@ -6286,7 +6286,7 @@
         <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>204</v>
@@ -6297,7 +6297,7 @@
         <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>144</v>
@@ -6308,7 +6308,7 @@
         <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>136</v>
@@ -6319,7 +6319,7 @@
         <v>205</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>206</v>
@@ -6330,7 +6330,7 @@
         <v>207</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>208</v>
@@ -6341,7 +6341,7 @@
         <v>207</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>209</v>
@@ -6352,7 +6352,7 @@
         <v>207</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>136</v>
@@ -6363,7 +6363,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>210</v>
@@ -6374,7 +6374,7 @@
         <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>211</v>
@@ -6382,42 +6382,42 @@
     </row>
     <row r="86" spans="1:3">
       <c r="B86" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="B87" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>144</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>136</v>
@@ -6436,65 +6436,65 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30">
       <c r="A95" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>144</v>
@@ -6502,10 +6502,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>136</v>
@@ -6513,109 +6513,109 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="30">
       <c r="A101" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30">
       <c r="A102" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="30">
       <c r="A103" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>144</v>
@@ -6623,10 +6623,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>136</v>
@@ -6634,87 +6634,87 @@
     </row>
     <row r="110" spans="1:3" ht="30">
       <c r="A110" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30">
       <c r="A111" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30">
       <c r="A116" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>144</v>
@@ -6722,21 +6722,21 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>136</v>
@@ -6744,65 +6744,65 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="30">
       <c r="A121" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>144</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>136</v>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>167</v>
@@ -6832,10 +6832,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>166</v>
@@ -6843,21 +6843,21 @@
     </row>
     <row r="129" spans="1:3" ht="30">
       <c r="A129" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>136</v>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>166</v>
@@ -6876,10 +6876,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>167</v>
@@ -6887,120 +6887,120 @@
     </row>
     <row r="133" spans="1:3" ht="30">
       <c r="A133" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30">
       <c r="A134" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="30">
       <c r="A135" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30">
       <c r="A136" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>134</v>
@@ -7008,10 +7008,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>135</v>
@@ -7019,21 +7019,21 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>134</v>
@@ -7041,32 +7041,32 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>136</v>
@@ -7074,10 +7074,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>168</v>
@@ -7085,10 +7085,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>166</v>
@@ -7096,10 +7096,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>167</v>
@@ -7107,21 +7107,21 @@
     </row>
     <row r="153" spans="1:3" ht="30">
       <c r="A153" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>168</v>
@@ -7129,10 +7129,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>134</v>
@@ -7140,10 +7140,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>135</v>
@@ -7151,21 +7151,21 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>168</v>
@@ -7173,43 +7173,43 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="30">
       <c r="A160" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>168</v>
@@ -7217,54 +7217,54 @@
     </row>
     <row r="163" spans="1:3" ht="30">
       <c r="A163" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30">
       <c r="A165" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>168</v>
@@ -7272,43 +7272,43 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="30">
       <c r="A169" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>144</v>
@@ -7316,21 +7316,21 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>168</v>
@@ -7338,54 +7338,54 @@
     </row>
     <row r="174" spans="1:3" ht="45">
       <c r="A174" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30">
       <c r="A175" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30">
       <c r="A176" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>168</v>
@@ -7393,76 +7393,76 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30">
       <c r="A180" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>144</v>
@@ -7470,87 +7470,87 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="30">
       <c r="A188" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>144</v>
@@ -7558,32 +7558,32 @@
     </row>
     <row r="194" spans="1:3" ht="30">
       <c r="A194" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>134</v>
@@ -7591,10 +7591,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>135</v>
@@ -7602,32 +7602,32 @@
     </row>
     <row r="198" spans="1:3" ht="30">
       <c r="A198" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>168</v>
@@ -7635,54 +7635,54 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="C202" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30">
       <c r="A203" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>168</v>
@@ -7690,43 +7690,43 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>136</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>168</v>
@@ -7745,65 +7745,65 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="30">
       <c r="A213" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>144</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>136</v>
@@ -7822,164 +7822,164 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30">
       <c r="A226" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="30">
       <c r="A227" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="30">
       <c r="A228" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="30">
       <c r="A229" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="30">
       <c r="A230" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>144</v>
@@ -7987,21 +7987,21 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>136</v>
@@ -8009,164 +8009,164 @@
     </row>
     <row r="235" spans="1:3" ht="30">
       <c r="A235" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="45">
       <c r="A237" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="60">
       <c r="A238" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="30">
       <c r="A242" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="30">
       <c r="A243" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="45">
       <c r="A244" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="30">
       <c r="A245" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30">
       <c r="A246" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>144</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>136</v>
@@ -8185,65 +8185,65 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="30">
       <c r="A253" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>144</v>
@@ -8251,10 +8251,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>136</v>
@@ -8262,32 +8262,32 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>136</v>
@@ -8295,10 +8295,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>168</v>
@@ -8306,43 +8306,43 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>136</v>
@@ -8350,164 +8350,164 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="30">
       <c r="A275" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="30">
       <c r="A276" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="30">
       <c r="A277" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="30">
       <c r="A278" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="30">
       <c r="A279" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>144</v>
@@ -8515,10 +8515,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>136</v>
@@ -8526,65 +8526,65 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>136</v>
@@ -8592,65 +8592,65 @@
     </row>
     <row r="288" spans="1:3" ht="30">
       <c r="A288" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30">
       <c r="A289" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="30">
       <c r="A290" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>144</v>
@@ -8658,10 +8658,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>136</v>
@@ -8669,10 +8669,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>168</v>
@@ -8680,32 +8680,32 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>136</v>
@@ -8713,10 +8713,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>167</v>
@@ -8724,10 +8724,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>166</v>
@@ -8735,21 +8735,21 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>136</v>
@@ -8757,43 +8757,43 @@
     </row>
     <row r="303" spans="1:3" ht="30">
       <c r="A303" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="30">
       <c r="A305" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>135</v>
@@ -8801,10 +8801,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>136</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>168</v>
@@ -8823,54 +8823,54 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="30">
       <c r="A311" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="30">
       <c r="A312" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>144</v>
@@ -8878,10 +8878,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>136</v>
@@ -8889,54 +8889,54 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="30">
       <c r="A318" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>144</v>
@@ -8944,10 +8944,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>136</v>
@@ -8955,10 +8955,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>168</v>
@@ -8966,43 +8966,43 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>136</v>
@@ -9010,10 +9010,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>168</v>
@@ -9021,65 +9021,65 @@
     </row>
     <row r="327" spans="1:3" ht="30">
       <c r="A327" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30">
       <c r="A328" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="30">
       <c r="A329" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="30">
       <c r="A330" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="30">
       <c r="A331" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>134</v>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>135</v>
@@ -9098,13 +9098,13 @@
     </row>
     <row r="334" spans="1:3" ht="30">
       <c r="A334" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -9112,7 +9112,7 @@
         <v>205</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>206</v>
@@ -9120,21 +9120,21 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>136</v>
@@ -9155,8 +9155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9183,7 +9183,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9207,7 +9207,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -9295,7 +9295,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9303,15 +9303,15 @@
         <v>25</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9319,15 +9319,15 @@
         <v>25</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
@@ -9375,7 +9375,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -9479,7 +9479,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -9487,7 +9487,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>69</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>69</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
@@ -9551,7 +9551,7 @@
         <v>77</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
@@ -9575,7 +9575,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -9599,7 +9599,7 @@
         <v>25</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:2">

--- a/app/config/tables/femaleClients/forms/femaleAllFields/femaleAllFields.xlsx
+++ b/app/config/tables/femaleClients/forms/femaleAllFields/femaleAllFields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8195" yWindow="0" windowWidth="31824" windowHeight="21103" tabRatio="500"/>
+    <workbookView xWindow="8195" yWindow="0" windowWidth="31824" windowHeight="21103" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="507">
   <si>
     <t>type</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>randomization</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>choice_list_name</t>
@@ -3257,7 +3254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3281,7 +3278,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -3293,10 +3290,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -3361,14 +3358,14 @@
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="46"/>
@@ -3379,36 +3376,36 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:10" s="19" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="1:10" s="19" customFormat="1" ht="125.7" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="41"/>
     </row>
@@ -3417,13 +3414,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="H9" s="41" t="b">
         <v>1</v>
@@ -3431,17 +3428,17 @@
     </row>
     <row r="10" spans="1:10" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="41"/>
     </row>
@@ -3454,10 +3451,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="H11" s="41" t="b">
         <v>1</v>
@@ -3468,37 +3465,37 @@
         <v>18</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:10" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="16"/>
@@ -3510,41 +3507,41 @@
         <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="H17" s="40"/>
     </row>
@@ -3553,60 +3550,60 @@
         <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="16"/>
@@ -3618,16 +3615,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="H23" s="40" t="b">
         <v>1</v>
@@ -3639,13 +3636,13 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="H24" s="41" t="b">
         <v>1</v>
@@ -3657,10 +3654,10 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="H25" s="40"/>
     </row>
@@ -3670,10 +3667,10 @@
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="H26" s="40"/>
     </row>
@@ -3682,16 +3679,16 @@
         <v>18</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="F27" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="H27" s="40" t="b">
         <v>1</v>
@@ -3702,13 +3699,13 @@
         <v>18</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="H28" s="40"/>
     </row>
@@ -3717,115 +3714,115 @@
         <v>18</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:8" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="H32" s="41"/>
     </row>
     <row r="33" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="2:10" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" s="19" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="H34" s="41"/>
     </row>
     <row r="35" spans="2:10" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B35" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="F35" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>107</v>
-      </c>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="2:10" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="E36" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="F36" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="H36" s="41"/>
     </row>
@@ -3838,7 +3835,7 @@
         <v>19</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>14</v>
@@ -3847,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
         <v>18</v>
       </c>
@@ -3858,50 +3855,50 @@
         <v>21</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="D39" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="H39" s="40"/>
     </row>
     <row r="40" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="H40" s="40"/>
     </row>
     <row r="41" spans="2:10" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B41" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="H41" s="41"/>
     </row>
@@ -3913,14 +3910,14 @@
     </row>
     <row r="43" spans="2:10" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="H43" s="41"/>
     </row>
@@ -3932,14 +3929,14 @@
     </row>
     <row r="45" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -3952,23 +3949,23 @@
         <v>6</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H46" s="42"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H47" s="42"/>
     </row>
@@ -3990,29 +3987,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
       <c r="B49" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="H50" s="45"/>
     </row>
@@ -4021,19 +4018,19 @@
         <v>18</v>
       </c>
       <c r="C51" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="E51" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="28"/>
       <c r="C52" s="29"/>
@@ -4042,14 +4039,14 @@
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="H53" s="45"/>
     </row>
@@ -4058,32 +4055,32 @@
         <v>18</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D54" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="H54" s="45"/>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="29"/>
@@ -4092,14 +4089,14 @@
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B57" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="H57" s="45"/>
     </row>
@@ -4108,26 +4105,26 @@
         <v>18</v>
       </c>
       <c r="C58" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="E58" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="H59" s="45"/>
     </row>
@@ -4136,26 +4133,26 @@
         <v>18</v>
       </c>
       <c r="C60" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="E60" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="H61" s="45"/>
     </row>
@@ -4164,13 +4161,13 @@
         <v>18</v>
       </c>
       <c r="C62" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="E62" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="H62" s="45"/>
     </row>
@@ -4179,44 +4176,44 @@
         <v>18</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D63" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="H63" s="45"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B64" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="E64" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="H64" s="45"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="H65" s="45"/>
     </row>
@@ -4226,16 +4223,16 @@
       <c r="D66" s="27"/>
       <c r="H66" s="45"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B67" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="H67" s="44"/>
     </row>
@@ -4244,13 +4241,13 @@
         <v>18</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="H68" s="45"/>
     </row>
@@ -4259,13 +4256,13 @@
         <v>18</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="H69" s="45"/>
     </row>
@@ -4275,26 +4272,26 @@
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="H70" s="45"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B71" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="H71" s="44"/>
     </row>
@@ -4303,44 +4300,44 @@
         <v>18</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="H72" s="45"/>
     </row>
     <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="E73" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="H73" s="45"/>
     </row>
     <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="H74" s="45"/>
     </row>
@@ -4349,13 +4346,13 @@
         <v>18</v>
       </c>
       <c r="C75" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="H75" s="45"/>
     </row>
@@ -4364,13 +4361,13 @@
         <v>18</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="H76" s="45"/>
     </row>
@@ -4379,13 +4376,13 @@
         <v>18</v>
       </c>
       <c r="C77" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="E77" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="H77" s="45"/>
     </row>
@@ -4395,13 +4392,13 @@
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="H78" s="45"/>
     </row>
@@ -4410,24 +4407,24 @@
         <v>18</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="H79" s="45"/>
     </row>
     <row r="80" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="29"/>
       <c r="D80" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H80" s="45"/>
     </row>
@@ -4436,13 +4433,13 @@
         <v>18</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="H81" s="45"/>
     </row>
@@ -4451,13 +4448,13 @@
         <v>18</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="H82" s="45"/>
     </row>
@@ -4466,28 +4463,28 @@
         <v>18</v>
       </c>
       <c r="C83" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="E83" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="H83" s="45"/>
     </row>
-    <row r="84" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B84" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="H84" s="45"/>
     </row>
@@ -4496,16 +4493,16 @@
         <v>18</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D85" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="H85" s="45"/>
     </row>
@@ -4514,28 +4511,28 @@
         <v>18</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D86" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="H86" s="45"/>
     </row>
-    <row r="87" spans="1:10" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B87" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="H87" s="45"/>
     </row>
@@ -4544,34 +4541,34 @@
         <v>18</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D88" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="H88" s="45"/>
     </row>
-    <row r="89" spans="1:10" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B89" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C89" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="E89" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="H89" s="45"/>
     </row>
     <row r="90" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B90" s="28"/>
       <c r="C90" s="29"/>
@@ -4580,14 +4577,14 @@
     </row>
     <row r="91" spans="1:10" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B91" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="H91" s="45"/>
     </row>
@@ -4596,26 +4593,26 @@
         <v>18</v>
       </c>
       <c r="C92" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="E92" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="H92" s="44"/>
     </row>
     <row r="93" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="29"/>
       <c r="D93" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="H93" s="45"/>
     </row>
@@ -4624,14 +4621,14 @@
     </row>
     <row r="95" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4645,23 +4642,23 @@
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H96" s="42"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B97" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H97" s="42"/>
     </row>
@@ -4683,27 +4680,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
       <c r="B99" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="H99" s="45"/>
     </row>
     <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D100" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="H100" s="45"/>
     </row>
@@ -4712,19 +4709,19 @@
         <v>18</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="E101" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="H101" s="45"/>
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" s="28"/>
       <c r="D102" s="32"/>
@@ -4732,13 +4729,13 @@
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="E103" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="H103" s="45"/>
     </row>
@@ -4747,31 +4744,31 @@
         <v>18</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D104" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="H104" s="45"/>
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D105" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="H105" s="45"/>
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B106" s="28"/>
       <c r="D106" s="32"/>
@@ -4779,25 +4776,25 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B107" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D107" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="H107" s="45"/>
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="H108" s="45"/>
     </row>
@@ -4806,25 +4803,25 @@
         <v>18</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D109" s="32" t="s">
+      <c r="E109" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="H109" s="45"/>
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="H110" s="45"/>
     </row>
@@ -4833,13 +4830,13 @@
         <v>18</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="D111" s="32" t="s">
+      <c r="E111" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="H111" s="45"/>
     </row>
@@ -4848,63 +4845,63 @@
         <v>18</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D112" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="H112" s="45"/>
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B113" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D113" s="32" t="s">
+      <c r="E113" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="H113" s="45"/>
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="H114" s="45"/>
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115" s="28"/>
       <c r="D115" s="32"/>
       <c r="H115" s="45"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B116" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D116" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="H116" s="44"/>
     </row>
@@ -4913,13 +4910,13 @@
         <v>18</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D117" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="H117" s="45"/>
     </row>
@@ -4928,13 +4925,13 @@
         <v>18</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D118" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="H118" s="45"/>
     </row>
@@ -4943,25 +4940,25 @@
         <v>6</v>
       </c>
       <c r="D119" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="H119" s="45"/>
+    </row>
+    <row r="120" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B120" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="H119" s="45"/>
-    </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D120" s="32" t="s">
+      <c r="E120" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="H120" s="44"/>
     </row>
@@ -4970,43 +4967,43 @@
         <v>18</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="H121" s="45"/>
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D122" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D122" s="32" t="s">
+      <c r="E122" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="H122" s="45"/>
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="H123" s="45"/>
     </row>
@@ -5015,19 +5012,19 @@
         <v>18</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D124" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="H124" s="45"/>
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B125" s="28"/>
       <c r="D125" s="32"/>
@@ -5038,13 +5035,13 @@
         <v>18</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D126" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="H126" s="45"/>
     </row>
@@ -5053,13 +5050,13 @@
         <v>18</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D127" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="E127" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="H127" s="45"/>
     </row>
@@ -5068,13 +5065,13 @@
         <v>6</v>
       </c>
       <c r="D128" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="H128" s="45"/>
     </row>
@@ -5083,19 +5080,19 @@
         <v>18</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D129" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="H129" s="45"/>
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B130" s="28"/>
       <c r="D130" s="32"/>
@@ -5106,13 +5103,13 @@
         <v>18</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D131" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="H131" s="45"/>
     </row>
@@ -5121,13 +5118,13 @@
         <v>18</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D132" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="H132" s="45"/>
     </row>
@@ -5136,46 +5133,46 @@
         <v>18</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D133" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="D133" s="32" t="s">
+      <c r="E133" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="H133" s="45"/>
+    </row>
+    <row r="134" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B134" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D134" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="H133" s="45"/>
-    </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D134" s="32" t="s">
+      <c r="E134" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="H134" s="45"/>
     </row>
     <row r="135" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B135" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D135" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="H135" s="45"/>
     </row>
@@ -5184,28 +5181,28 @@
         <v>18</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D136" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="H136" s="45"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B137" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D137" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="H137" s="45"/>
     </row>
@@ -5214,78 +5211,78 @@
         <v>18</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D138" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="H138" s="45"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B139" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="E139" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="H139" s="45"/>
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B140" s="28"/>
       <c r="D140" s="32"/>
       <c r="H140" s="45"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B141" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D141" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="H141" s="44"/>
+    </row>
+    <row r="142" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B142" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D142" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="H141" s="44"/>
-    </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="B142" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D142" s="32" t="s">
+      <c r="E142" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="H142" s="45"/>
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D143" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="H143" s="45"/>
     </row>
@@ -5294,67 +5291,67 @@
         <v>18</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D144" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="H144" s="45"/>
     </row>
     <row r="145" spans="2:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B145" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D145" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="H145" s="45"/>
     </row>
     <row r="146" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H146" s="45"/>
     </row>
     <row r="147" spans="2:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B147" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D147" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="H147" s="45"/>
     </row>
     <row r="148" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D148" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="H148" s="45"/>
     </row>
@@ -5379,8 +5376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5392,13 +5389,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5425,3664 +5422,3664 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="C201" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="62.85" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -9114,13 +9111,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -9128,12 +9125,12 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>20140512</v>
@@ -9141,18 +9138,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -9213,10 +9210,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9224,23 +9221,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9248,15 +9245,15 @@
         <v>18</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>210</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9264,23 +9261,23 @@
         <v>18</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9288,15 +9285,15 @@
         <v>18</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9304,7 +9301,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9312,23 +9309,23 @@
         <v>18</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9336,7 +9333,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9344,7 +9341,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9352,7 +9349,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9360,23 +9357,23 @@
         <v>18</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9384,7 +9381,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9392,7 +9389,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9400,7 +9397,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9408,7 +9405,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9416,7 +9413,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9424,7 +9421,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9432,7 +9429,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9440,23 +9437,23 @@
         <v>18</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9464,7 +9461,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -9472,7 +9469,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -9480,7 +9477,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -9488,23 +9485,23 @@
         <v>18</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -9512,31 +9509,31 @@
         <v>18</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -9544,7 +9541,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -9552,7 +9549,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -9560,7 +9557,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -9568,7 +9565,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -9576,7 +9573,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -9584,23 +9581,23 @@
         <v>18</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -9608,31 +9605,31 @@
         <v>18</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -9640,7 +9637,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -9648,7 +9645,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -9656,7 +9653,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -9664,7 +9661,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -9672,7 +9669,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -9680,23 +9677,23 @@
         <v>18</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
